--- a/Tài liệu/Widget_MaterialApp.xlsx
+++ b/Tài liệu/Widget_MaterialApp.xlsx
@@ -16,7 +16,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="98">
   <si>
-    <t>MaterialApp</t>
+    <r>
+      <t xml:space="preserve">MaterialApp
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Trong Flutter, MaterialApp là một widget cốt lõi được sử dụng để xây dựng ứng dụng dựa trên nguyên tắc thiết kế Material Design của Google. Nó đóng vai trò quan trọng trong việc thiết lập và cấu hình một số tính năng chung cho ứng dụng của bạn. Cụ thể, MaterialApp có các tác dụng sau:
+Thiết lập chủ đề (Theme): Bằng cách sử dụng MaterialApp, bạn có thể xác định chủ đề (Theme) cho ứng dụng của mình. Chủ đề bao gồm các thông số như màu sắc, kiểu chữ, biểu tượng, v.v. Theo thiết lập chủ đề Material Design mặc định, nhưng bạn có thể tuỳ chỉnh chúng tùy theo nhu cầu.
+Quản lý định tuyến (Routing): MaterialApp cung cấp một hệ thống định tuyến (routing) tích hợp sẵn, cho phép bạn dễ dàng chuyển đổi giữa các màn hình và trang trong ứng dụng của mình. Điều này giúp bạn duyệt qua các trang khác nhau một cách dễ dàng và tổ chức ứng dụng của bạn một cách hiệu quả.
+Tích hợp hệ thống tìm kiếm: Trong MaterialApp, bạn có thể sử dụng thanh tìm kiếm mặc định của Material Design một cách dễ dàng để cung cấp tính năng tìm kiếm trong ứng dụng của mình.
+Quản lý ngôn ngữ: Nếu bạn muốn hỗ trợ nhiều ngôn ngữ trong ứng dụng của mình, MaterialApp cũng cung cấp tích hợp cho việc quản lý đa ngôn ngữ thông qua gói flutter_localizations.
+Điều hướng dễ dàng: MaterialApp cung cấp một cách dễ dàng để điều hướng giữa các màn hình trong ứng dụng của bạn thông qua Navigator.</t>
+    </r>
   </si>
   <si>
     <t>STT</t>
@@ -69,6 +87,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Map&lt;String, Widget Function(BuildContext)&gt; </t>
     </r>
     <r>
@@ -151,6 +176,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">String </t>
     </r>
     <r>
@@ -376,10 +408,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -420,6 +452,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -429,90 +537,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -527,14 +552,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -550,7 +575,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -558,7 +583,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -579,13 +611,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,7 +677,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,31 +707,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,115 +779,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,11 +857,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -845,6 +883,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -867,8 +914,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -876,23 +923,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -927,15 +959,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -945,134 +977,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1098,7 +1130,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1121,9 +1153,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1135,21 +1164,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1478,8 +1492,8 @@
   <sheetPr/>
   <dimension ref="C1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="5"/>
@@ -1499,7 +1513,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" ht="18" spans="3:6">
+    <row r="2" ht="191" customHeight="1" spans="3:6">
       <c r="C2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1523,509 +1537,509 @@
       <c r="E4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" ht="40.8" spans="3:6">
-      <c r="C5" s="17">
+      <c r="C5" s="16">
         <v>1</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" ht="30.6" spans="3:6">
-      <c r="C6" s="17">
+    <row r="6" ht="20.4" spans="3:6">
+      <c r="C6" s="16">
         <v>2</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="19" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" ht="81.6" spans="3:6">
-      <c r="C7" s="17">
+      <c r="C7" s="16">
         <v>3</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" ht="40.8" spans="3:6">
-      <c r="C8" s="17">
+    <row r="8" ht="30.6" spans="3:6">
+      <c r="C8" s="16">
         <v>4</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="19" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" ht="122.4" spans="3:6">
-      <c r="C9" s="17">
+      <c r="C9" s="16">
         <v>5</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="23" t="s">
+      <c r="E9" s="21"/>
+      <c r="F9" s="19" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" ht="40.8" spans="3:6">
-      <c r="C10" s="17">
+      <c r="C10" s="16">
         <v>6</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="19" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" ht="61.2" spans="3:6">
-      <c r="C11" s="17">
+      <c r="C11" s="16">
         <v>7</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="19" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" ht="30.6" spans="3:6">
-      <c r="C12" s="17">
+      <c r="C12" s="16">
         <v>8</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="19" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" ht="40.8" spans="3:6">
-      <c r="C13" s="17">
+      <c r="C13" s="16">
         <v>9</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="19" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" ht="51" spans="3:6">
-      <c r="C14" s="17">
+      <c r="C14" s="16">
         <v>10</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="23" t="s">
+      <c r="E14" s="21"/>
+      <c r="F14" s="19" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" ht="41.4" spans="3:6">
-      <c r="C15" s="17">
+      <c r="C15" s="16">
         <v>11</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="19" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" ht="20.4" spans="3:6">
-      <c r="C16" s="17">
+      <c r="C16" s="16">
         <v>12</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="23" t="s">
+      <c r="E16" s="21"/>
+      <c r="F16" s="19" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17" ht="27.6" spans="3:6">
-      <c r="C17" s="17">
+      <c r="C17" s="16">
         <v>13</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="19" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" ht="20.4" spans="3:6">
-      <c r="C18" s="17">
+      <c r="C18" s="16">
         <v>14</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="F18" s="19" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="19" ht="30.6" spans="3:6">
-      <c r="C19" s="17">
+      <c r="C19" s="16">
         <v>15</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="19" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="20" ht="30.6" spans="3:6">
-      <c r="C20" s="17">
+      <c r="C20" s="16">
         <v>16</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="F20" s="19" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="21" ht="40.8" spans="3:6">
-      <c r="C21" s="17">
+      <c r="C21" s="16">
         <v>17</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="19" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="22" ht="40.8" spans="3:6">
-      <c r="C22" s="17">
+      <c r="C22" s="16">
         <v>18</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="F22" s="19" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="23" ht="30.6" spans="3:6">
-      <c r="C23" s="17">
+      <c r="C23" s="16">
         <v>19</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="23" t="s">
+      <c r="F23" s="19" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="24" ht="40.8" spans="3:6">
-      <c r="C24" s="17">
+      <c r="C24" s="16">
         <v>20</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D24" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="27"/>
-      <c r="F24" s="23" t="s">
+      <c r="E24" s="21"/>
+      <c r="F24" s="19" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="25" ht="30.6" spans="3:6">
-      <c r="C25" s="17">
+      <c r="C25" s="16">
         <v>21</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="E25" s="27"/>
-      <c r="F25" s="23" t="s">
+      <c r="E25" s="21"/>
+      <c r="F25" s="19" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="26" ht="40.8" spans="3:6">
-      <c r="C26" s="17">
+      <c r="C26" s="16">
         <v>22</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F26" s="23" t="s">
+      <c r="F26" s="19" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="27" ht="51" spans="3:6">
-      <c r="C27" s="17">
+      <c r="C27" s="16">
         <v>23</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F27" s="23" t="s">
+      <c r="F27" s="19" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="28" ht="30.6" spans="3:6">
-      <c r="C28" s="17">
+      <c r="C28" s="16">
         <v>24</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="E28" s="27"/>
-      <c r="F28" s="23" t="s">
+      <c r="E28" s="21"/>
+      <c r="F28" s="19" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="29" ht="29" customHeight="1" spans="3:6">
-      <c r="C29" s="17">
+      <c r="C29" s="16">
         <v>25</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="E29" s="27"/>
-      <c r="F29" s="23" t="s">
+      <c r="E29" s="21"/>
+      <c r="F29" s="19" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="30" ht="30.6" spans="3:6">
-      <c r="C30" s="17">
+      <c r="C30" s="16">
         <v>26</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E30" s="27"/>
-      <c r="F30" s="23" t="s">
+      <c r="E30" s="21"/>
+      <c r="F30" s="19" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="31" ht="40.8" spans="3:6">
-      <c r="C31" s="17">
+      <c r="C31" s="16">
         <v>27</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="D31" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="F31" s="23" t="s">
+      <c r="F31" s="19" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="32" ht="61.2" spans="3:6">
-      <c r="C32" s="17">
+      <c r="C32" s="16">
         <v>28</v>
       </c>
-      <c r="D32" s="21" t="s">
+      <c r="D32" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F32" s="23" t="s">
+      <c r="F32" s="19" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="33" ht="71.4" spans="3:6">
-      <c r="C33" s="17">
+      <c r="C33" s="16">
         <v>29</v>
       </c>
-      <c r="D33" s="21" t="s">
+      <c r="D33" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F33" s="23" t="s">
+      <c r="F33" s="19" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="34" ht="71.4" spans="3:6">
-      <c r="C34" s="17">
+      <c r="C34" s="16">
         <v>30</v>
       </c>
-      <c r="D34" s="21" t="s">
+      <c r="D34" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E34" s="22" t="s">
+      <c r="E34" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="F34" s="23" t="s">
+      <c r="F34" s="19" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="35" ht="71.4" spans="3:6">
-      <c r="C35" s="17">
+      <c r="C35" s="16">
         <v>31</v>
       </c>
-      <c r="D35" s="21" t="s">
+      <c r="D35" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E35" s="22" t="s">
+      <c r="E35" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F35" s="23" t="s">
+      <c r="F35" s="19" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="36" ht="61.2" spans="3:6">
-      <c r="C36" s="17">
+      <c r="C36" s="16">
         <v>32</v>
       </c>
-      <c r="D36" s="21" t="s">
+      <c r="D36" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E36" s="22" t="s">
+      <c r="E36" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="F36" s="23" t="s">
+      <c r="F36" s="19" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="37" ht="40.8" spans="3:6">
-      <c r="C37" s="17">
+      <c r="C37" s="16">
         <v>33</v>
       </c>
-      <c r="D37" s="21" t="s">
+      <c r="D37" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E37" s="22" t="s">
+      <c r="E37" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="F37" s="23" t="s">
+      <c r="F37" s="19" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="38" ht="40.8" spans="3:6">
-      <c r="C38" s="17">
+      <c r="C38" s="16">
         <v>34</v>
       </c>
-      <c r="D38" s="21" t="s">
+      <c r="D38" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="E38" s="22" t="s">
+      <c r="E38" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F38" s="23" t="s">
+      <c r="F38" s="19" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="39" ht="51" spans="3:6">
-      <c r="C39" s="17">
+      <c r="C39" s="16">
         <v>35</v>
       </c>
-      <c r="D39" s="21" t="s">
+      <c r="D39" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="E39" s="22" t="s">
+      <c r="E39" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="F39" s="23" t="s">
+      <c r="F39" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="40" ht="30.6" spans="3:6">
-      <c r="C40" s="17">
+      <c r="C40" s="16">
         <v>36</v>
       </c>
-      <c r="D40" s="21" t="s">
+      <c r="D40" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="E40" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="F40" s="23" t="s">
+      <c r="F40" s="19" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="41" ht="81.6" spans="3:6">
-      <c r="C41" s="17">
+      <c r="C41" s="16">
         <v>37</v>
       </c>
-      <c r="D41" s="21" t="s">
+      <c r="D41" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E41" s="22" t="s">
+      <c r="E41" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="F41" s="23" t="s">
+      <c r="F41" s="19" t="s">
         <v>97</v>
       </c>
     </row>
